--- a/Preliminary BoM.xlsx
+++ b/Preliminary BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-VCEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B99F855E-2A27-4F5A-B0B5-99AB286D742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2483A-8D82-4CBC-9588-AC6B880A8F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9025ED8D-87B0-4B6C-A3C2-D58E978FDF41}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="130">
   <si>
     <t>Reference</t>
   </si>
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>SB140</t>
+  </si>
+  <si>
+    <t>Picked?</t>
+  </si>
+  <si>
+    <t>Picked</t>
+  </si>
+  <si>
+    <t>Qty buy</t>
   </si>
 </sst>
 </file>
@@ -936,7 +945,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -969,11 +978,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -989,11 +1028,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2144,11 +2223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2236,7 @@
     <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,13 +2250,19 @@
         <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2190,14 +2275,14 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2210,14 +2295,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2230,14 +2315,14 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2250,14 +2335,14 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2270,14 +2355,14 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2290,14 +2375,14 @@
       <c r="D7">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2310,14 +2395,14 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2330,14 +2415,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2350,14 +2435,14 @@
       <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2370,14 +2455,14 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2390,14 +2475,14 @@
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2410,14 +2495,14 @@
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2430,14 +2515,14 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2450,14 +2535,14 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2470,14 +2555,14 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2490,14 +2575,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2510,14 +2595,14 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2530,14 +2615,14 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2550,15 +2635,15 @@
       <c r="D20">
         <v>58</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20">
         <f>D20/2</f>
         <v>29</v>
       </c>
-      <c r="F20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2571,15 +2656,15 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21">
-        <f t="shared" ref="E21:E51" si="0">D21/2</f>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21">
+        <f>D21/2</f>
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2592,15 +2677,15 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22">
+        <f>D22/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2613,15 +2698,15 @@
       <c r="D23">
         <v>8</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23">
+        <f>D23/2</f>
         <v>4</v>
       </c>
-      <c r="F23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2634,15 +2719,15 @@
       <c r="D24">
         <v>28</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24">
+        <f>D24/2</f>
         <v>14</v>
       </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2655,15 +2740,15 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25">
+        <f>D25/2</f>
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2676,15 +2761,15 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26">
+        <f>D26/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2697,15 +2782,15 @@
       <c r="D27">
         <v>6</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27">
+        <f>D27/2</f>
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2718,15 +2803,15 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28">
+        <f>D28/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2739,15 +2824,15 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29">
+        <f>D29/2</f>
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2760,15 +2845,15 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30">
+        <f>D30/2</f>
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2781,15 +2866,15 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31">
+        <f>D31/2</f>
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2802,15 +2887,15 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32">
+        <f>D32/2</f>
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2823,15 +2908,15 @@
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <f>D33/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2844,15 +2929,15 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34">
+        <f>D34/2</f>
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2865,15 +2950,15 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35">
+        <f>D35/2</f>
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2886,15 +2971,18 @@
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36">
+        <f>D36/2</f>
         <v>6</v>
       </c>
-      <c r="F36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2907,15 +2995,18 @@
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37">
+        <f>D37/2</f>
         <v>3</v>
       </c>
-      <c r="F37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -2928,15 +3019,21 @@
       <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <f>D38/2</f>
         <v>3</v>
       </c>
-      <c r="F38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -2949,15 +3046,21 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <f>D39/2</f>
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2970,15 +3073,18 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40">
+        <f>D40/2</f>
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2991,15 +3097,21 @@
       <c r="D41">
         <v>8</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <f>D41/2</f>
         <v>4</v>
       </c>
-      <c r="F41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3012,15 +3124,21 @@
       <c r="D42">
         <v>8</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f>D42/2</f>
         <v>4</v>
       </c>
-      <c r="F42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -3033,15 +3151,21 @@
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <f>D43/2</f>
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3054,14 +3178,17 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3074,15 +3201,21 @@
       <c r="D45">
         <v>12</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <f>D45/2</f>
         <v>6</v>
       </c>
-      <c r="F45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -3095,15 +3228,21 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <f>D46/2</f>
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3116,15 +3255,18 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47">
+        <f>D47/2</f>
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3137,15 +3279,21 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <f>D48/2</f>
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -3158,52 +3306,88 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>106</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>122</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <autoFilter ref="A1:G1" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}"/>
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"CHECK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"BUY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H45 H47 H49:H1048576">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Picked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"CHECK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"BUY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"CHECK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Preliminary BoM.xlsx
+++ b/Preliminary BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-VCEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2483A-8D82-4CBC-9588-AC6B880A8F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE51779-2FBA-456F-B734-D30CC8AFAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9025ED8D-87B0-4B6C-A3C2-D58E978FDF41}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="133">
   <si>
     <t>Reference</t>
   </si>
@@ -414,6 +414,15 @@
   </si>
   <si>
     <t>Qty buy</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>390k</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,6 +745,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -897,9 +912,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -945,7 +962,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1008,6 +1025,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1033,6 +1070,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2223,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,10 +2353,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2">
         <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2296,10 +2376,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,10 +2399,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G4">
         <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2336,10 +2422,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2361,6 +2450,9 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2376,10 +2468,13 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,10 +2491,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8">
         <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,7 +2517,10 @@
         <v>117</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,10 +2537,13 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10">
         <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2461,6 +2565,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2481,6 +2588,9 @@
       <c r="G12">
         <v>4</v>
       </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2501,6 +2611,9 @@
       <c r="G13">
         <v>10</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2521,6 +2634,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2541,6 +2657,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2561,8 +2680,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2581,8 +2703,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2601,8 +2726,11 @@
       <c r="G18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2621,8 +2749,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2636,14 +2767,17 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20">
-        <f>D20/2</f>
+        <f t="shared" ref="G20:G43" si="0">D20/2</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2657,14 +2791,17 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21">
-        <f>D21/2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2681,11 +2818,14 @@
         <v>117</v>
       </c>
       <c r="G22">
-        <f>D22/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2699,14 +2839,17 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23">
-        <f>D23/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2720,14 +2863,17 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24">
-        <f>D24/2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2741,14 +2887,17 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25">
-        <f>D25/2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2762,14 +2911,17 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26">
-        <f>D26/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2783,14 +2935,17 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G27">
-        <f>D27/2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2804,14 +2959,17 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28">
-        <f>D28/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2828,11 +2986,14 @@
         <v>118</v>
       </c>
       <c r="G29">
-        <f>D29/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2849,11 +3010,14 @@
         <v>117</v>
       </c>
       <c r="G30">
-        <f>D30/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2867,14 +3031,17 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31">
-        <f>D31/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2888,11 +3055,14 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32">
-        <f>D32/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,8 +3082,11 @@
         <v>117</v>
       </c>
       <c r="G33">
-        <f>D33/2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,11 +3103,14 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34">
-        <f>D34/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2954,8 +3130,11 @@
         <v>117</v>
       </c>
       <c r="G35">
-        <f>D35/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,7 +3154,7 @@
         <v>117</v>
       </c>
       <c r="G36">
-        <f>D36/2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H36" t="s">
@@ -2999,7 +3178,7 @@
         <v>117</v>
       </c>
       <c r="G37">
-        <f>D37/2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H37" t="s">
@@ -3026,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <f>D38/2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H38" t="s">
@@ -3053,7 +3232,7 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <f>D39/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H39" t="s">
@@ -3077,7 +3256,7 @@
         <v>117</v>
       </c>
       <c r="G40">
-        <f>D40/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H40" t="s">
@@ -3104,7 +3283,7 @@
         <v>10</v>
       </c>
       <c r="G41">
-        <f>D41/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H41" t="s">
@@ -3131,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="G42">
-        <f>D42/2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H42" t="s">
@@ -3158,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <f>D43/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H43" t="s">
@@ -3332,6 +3511,9 @@
       <c r="G50">
         <v>0</v>
       </c>
+      <c r="H50" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
@@ -3349,26 +3531,97 @@
       <c r="G51">
         <v>0</v>
       </c>
+      <c r="H51" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}"/>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"CHECK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H45 H47 H49:H1048576">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="H47 H49:H51 H54:H1048576 H1:H45">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Picked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"CHECK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"BUY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"CHECK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"BUY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -3379,7 +3632,7 @@
       <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/Preliminary BoM.xlsx
+++ b/Preliminary BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-VCEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE51779-2FBA-456F-B734-D30CC8AFAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A428565-0531-4CC2-84F5-C6D62CCE157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9025ED8D-87B0-4B6C-A3C2-D58E978FDF41}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="135">
   <si>
     <t>Reference</t>
   </si>
@@ -416,13 +416,19 @@
     <t>Qty buy</t>
   </si>
   <si>
-    <t>500k</t>
-  </si>
-  <si>
     <t>390k</t>
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>kart</t>
+  </si>
+  <si>
+    <t>CD4001BE</t>
+  </si>
+  <si>
+    <t>499k</t>
   </si>
 </sst>
 </file>
@@ -962,67 +968,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2300,11 +2246,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
-  <dimension ref="A1:H53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,7 +2260,7 @@
     <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2286,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2309,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2407,8 +2354,11 @@
       <c r="H4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2477,7 +2427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2497,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2520,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2546,7 +2496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +2519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2592,7 +2542,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2612,10 +2562,10 @@
         <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2635,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2658,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2681,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2704,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2730,7 +2680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2753,7 +2703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2776,8 +2726,11 @@
       <c r="H20" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2801,7 +2754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2825,7 +2778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2849,7 +2802,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2872,8 +2825,11 @@
       <c r="H24" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2896,8 +2852,11 @@
       <c r="H25" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2921,7 +2880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2944,8 +2903,11 @@
       <c r="H27" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2968,8 +2930,11 @@
       <c r="H28" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2992,8 +2957,11 @@
       <c r="H29" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3017,7 +2985,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3041,7 +3009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3065,7 +3033,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3089,7 +3057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3113,7 +3081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3137,7 +3105,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3161,7 +3129,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3185,7 +3153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3211,8 +3179,11 @@
       <c r="H38" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -3238,8 +3209,11 @@
       <c r="H39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -3263,7 +3237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -3289,8 +3263,11 @@
       <c r="H41" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3316,8 +3293,11 @@
       <c r="H42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -3343,8 +3323,11 @@
       <c r="H43" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3367,7 +3350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3393,13 +3376,16 @@
       <c r="H45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
-      <c r="B46">
-        <v>4001</v>
+      <c r="B46" t="s">
+        <v>133</v>
       </c>
       <c r="C46" t="s">
         <v>111</v>
@@ -3420,8 +3406,11 @@
       <c r="H46" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3445,7 +3434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3471,8 +3460,11 @@
       <c r="H48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>106</v>
       </c>
@@ -3512,10 +3504,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>122</v>
       </c>
@@ -3532,12 +3527,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -3557,10 +3555,13 @@
       <c r="H52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -3580,59 +3581,57 @@
       <c r="H53" t="s">
         <v>118</v>
       </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}"/>
+  <autoFilter ref="A1:G53" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="BUY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"CHECK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49:H51 H54:H1048576 H1:H45">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="H1:H45 H47 H49:H51 H54:H1048576">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Picked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"CHECK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"CHECK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"BUY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"CHECK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"BUY"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H52:H53">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/Preliminary BoM.xlsx
+++ b/Preliminary BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-VCEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A428565-0531-4CC2-84F5-C6D62CCE157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AC6B8-4AB6-4F4E-A668-D51F9D5C7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9025ED8D-87B0-4B6C-A3C2-D58E978FDF41}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{9025ED8D-87B0-4B6C-A3C2-D58E978FDF41}"/>
   </bookViews>
   <sheets>
     <sheet name="DMH_VCEG_PCB_1" sheetId="1" r:id="rId1"/>
@@ -2246,12 +2246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -3586,13 +3585,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G53" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="BUY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G53" xr:uid="{2F8EA1B3-DE99-4B5B-B92A-5EF6DEBF9FE4}"/>
   <conditionalFormatting sqref="E1:F1048576">
     <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"OK"</formula>
